--- a/planning/planning.xlsx
+++ b/planning/planning.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>Task</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Completed</t>
-  </si>
-  <si>
-    <t>Atanas Georgiev</t>
   </si>
   <si>
     <t>Create source structure</t>
@@ -101,6 +98,27 @@
   </si>
   <si>
     <t>Backward compatibility ?</t>
+  </si>
+  <si>
+    <t>26/07/2015</t>
+  </si>
+  <si>
+    <t>Mira</t>
+  </si>
+  <si>
+    <t>Dimo</t>
+  </si>
+  <si>
+    <t>Todor</t>
+  </si>
+  <si>
+    <t>Nasko</t>
+  </si>
+  <si>
+    <t>Niki</t>
+  </si>
+  <si>
+    <t>Valio</t>
   </si>
 </sst>
 </file>
@@ -108,7 +126,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -149,12 +167,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,7 +480,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,198 +520,198 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/planning/planning.xlsx
+++ b/planning/planning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Task</t>
   </si>
@@ -120,11 +120,14 @@
   <si>
     <t>Valio</t>
   </si>
+  <si>
+    <t>Miroslav</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
@@ -480,7 +483,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +655,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>25</v>
@@ -671,6 +674,7 @@
       <c r="D12" t="s">
         <v>13</v>
       </c>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
